--- a/biology/Zoologie/Crowsoniella/Crowsoniella.xlsx
+++ b/biology/Zoologie/Crowsoniella/Crowsoniella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crowsoniella est un genre d'insectes de l'ordre des Coléoptères, de la famille des Crowsoniellidae. C'est le seul genre de cette famille.
 </t>
@@ -511,13 +523,15 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (27 août 2014)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (27 août 2014) :
 Crowsoniella relicta
-Selon ITIS      (27 août 2014)[1] :
+Selon ITIS      (27 août 2014) :
 Crowsoniella relicta Pace, 1975
-Selon Paleobiology Database                   (27 août 2014)[3] :
+Selon Paleobiology Database                   (27 août 2014) :
 Crowsoniella relicta</t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pace, 1975 : An exceptional endogeous beetle: Crowsoniella relicta n. gen. n. sp. of Archostemata Tetraphaleridae from central Italy (XVI. Contribution to knowledge of endogeous beetles). Bollettino del Museo Civico di Storia Naturale di Verona botanica zoologia, vol. 2, pp. 445–458.</t>
         </is>
